--- a/Code/Results/OPT_configs.xlsx
+++ b/Code/Results/OPT_configs.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>18</t>
@@ -28,13 +28,13 @@
     <t>19</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>45</t>
@@ -46,13 +46,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>62</t>
   </si>
   <si>
     <t>69</t>
@@ -76,28 +70,16 @@
     <t>77</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>136</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t>148</t>
@@ -106,13 +88,10 @@
     <t>157</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>169</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>171</t>
   </si>
   <si>
     <t>175</t>
@@ -124,52 +103,34 @@
     <t>180</t>
   </si>
   <si>
-    <t>187</t>
-  </si>
-  <si>
     <t>189</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>192</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
     <t>213</t>
   </si>
   <si>
     <t>214</t>
   </si>
   <si>
-    <t>218</t>
-  </si>
-  <si>
     <t>222</t>
   </si>
   <si>
-    <t>229</t>
-  </si>
-  <si>
     <t>232</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>237</t>
   </si>
   <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>247</t>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -527,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>510413374.9016</v>
+        <v>513909334.5522</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>468326836.4351</v>
+        <v>485094095.1716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -593,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>346070536.4351</v>
+        <v>632669674.9016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>445949994.1364</v>
+        <v>525959026.7845</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>403863455.6699</v>
+        <v>500639747.0545</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -659,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>400367496.0193</v>
+        <v>468326836.4351</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>366333754.8222</v>
+        <v>571541524.9016</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>400367496.0193</v>
+        <v>424126674.057</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>571541524.9016</v>
+        <v>449445953.787</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>424126674.057</v>
+        <v>464830876.7845</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>449445953.787</v>
+        <v>443007556.7051</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>464830876.7845</v>
+        <v>488590054.8222</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>443007556.7051</v>
+        <v>375048216.2893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>488590054.8222</v>
+        <v>420630714.4064</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>375048216.2893</v>
+        <v>568206294.1364</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>452781184.5522</v>
+        <v>571541524.9016</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>381879406.7051</v>
+        <v>546222245.1716</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>407198686.4351</v>
+        <v>510413374.9016</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>449285224.9016</v>
+        <v>427461904.8222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>403863455.6699</v>
+        <v>522623796.0193</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>452781184.5522</v>
+        <v>507078144.1364</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>317416025.9399</v>
+        <v>510574103.787</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +807,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>513909334.5522</v>
+        <v>525959026.7845</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +818,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>510413374.9016</v>
+        <v>575037484.5522001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>427461904.8222</v>
+        <v>420630714.4064</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +840,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>381879406.7051</v>
+        <v>587087176.7845</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>313920066.2893</v>
+        <v>464991605.6699</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +862,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>378383447.0545</v>
+        <v>485094095.1716</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +873,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>510574103.787</v>
+        <v>362998524.057</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>525959026.7845</v>
+        <v>507078144.1364</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>575037484.5522001</v>
+        <v>529454986.4351</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>513909334.5522</v>
+        <v>461495646.0193</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +917,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>420630714.4064</v>
+        <v>481758864.4064</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,150 +928,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>391653034.5522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>407198686.4351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>464991605.6699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>468326836.4351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>485094095.1716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>362998524.057</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>452781184.5522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>507078144.1364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>427461904.8222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>529454986.4351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>320751256.7051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>461495646.0193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>464830876.7845</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>449445953.787</v>
+        <v>436176366.2893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/OPT_configs.xlsx
+++ b/Code/Results/OPT_configs.xlsx
@@ -11,6 +11,104 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,18 +464,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>463840994.8354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>589432525.6006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>614751805.3306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>463840994.8354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>492656234.216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>409544035.2512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>557119614.9812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>406208804.486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>614751805.3306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>531800335.2512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>611416574.5654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>467336954.486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>528304375.6005999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>402712844.8354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>550288424.5654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>557119614.9812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>553623655.3306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>492656234.216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>463840994.8354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>470672185.2512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>524969144.8354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>550288424.5654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>675879955.3306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>528304375.6005999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>406208804.486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>489160274.5654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>553784384.2160001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>495991464.9812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>618247764.9812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>470672185.2512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>467176225.6005999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/OPT_configs.xlsx
+++ b/Code/Results/OPT_configs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
   <si>
     <t xml:space="preserve">24</t>
   </si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -121,7 +127,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="000000.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -226,16 +232,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF2E3436"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -244,18 +240,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -270,12 +266,8 @@
       <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>402712844.8354</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">C2/10^6</f>
-        <v>402.7128448354</v>
+      <c r="C2" s="2" t="n">
+        <v>419492052.6031</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,12 +277,8 @@
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>406208804.486</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">C3/10^6</f>
-        <v>406.208804486</v>
+      <c r="C3" s="2" t="n">
+        <v>477124242.9525</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,12 +288,8 @@
       <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>406208804.486</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">C4/10^6</f>
-        <v>406.208804486</v>
+      <c r="C4" s="2" t="n">
+        <v>480620202.6031</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,12 +299,8 @@
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>409544035.2512</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">C5/10^6</f>
-        <v>409.5440352512</v>
+      <c r="C5" s="2" t="n">
+        <v>480620202.6031</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,12 +310,8 @@
       <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>463840994.8354</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <f aca="false">C6/10^6</f>
-        <v>463.8409948354</v>
+      <c r="C6" s="2" t="n">
+        <v>483955433.3683</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,12 +321,8 @@
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>463840994.8354</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">C7/10^6</f>
-        <v>463.8409948354</v>
+      <c r="C7" s="2" t="n">
+        <v>505939482.3331</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,12 +332,8 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>463840994.8354</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">C8/10^6</f>
-        <v>463.8409948354</v>
+      <c r="C8" s="2" t="n">
+        <v>538252392.9525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,12 +343,8 @@
       <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>467176225.6006</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <f aca="false">C9/10^6</f>
-        <v>467.1762256006</v>
+      <c r="C9" s="2" t="n">
+        <v>538252392.9525</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,12 +354,8 @@
       <c r="B10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>467336954.486</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <f aca="false">C10/10^6</f>
-        <v>467.336954486</v>
+      <c r="C10" s="2" t="n">
+        <v>538252392.9525</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,12 +365,8 @@
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>470672185.2512</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <f aca="false">C11/10^6</f>
-        <v>470.6721852512</v>
+      <c r="C11" s="2" t="n">
+        <v>541587623.7177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,12 +376,8 @@
       <c r="B12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>470672185.2512</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">C12/10^6</f>
-        <v>470.6721852512</v>
+      <c r="C12" s="2" t="n">
+        <v>541748352.6031</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,12 +387,8 @@
       <c r="B13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>489160274.5654</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <f aca="false">C13/10^6</f>
-        <v>489.1602745654</v>
+      <c r="C13" s="2" t="n">
+        <v>545083583.3683</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,12 +398,8 @@
       <c r="B14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>492656234.216</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <f aca="false">C14/10^6</f>
-        <v>492.656234216</v>
+      <c r="C14" s="2" t="n">
+        <v>545083583.3683</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,12 +409,8 @@
       <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>492656234.216</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <f aca="false">C15/10^6</f>
-        <v>492.656234216</v>
+      <c r="C15" s="2" t="n">
+        <v>563571672.6825</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,12 +420,8 @@
       <c r="B16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>495991464.9812</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <f aca="false">C16/10^6</f>
-        <v>495.9914649812</v>
+      <c r="C16" s="2" t="n">
+        <v>567067632.3331</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,12 +431,8 @@
       <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>524969144.8354</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <f aca="false">C17/10^6</f>
-        <v>524.9691448354</v>
+      <c r="C17" s="2" t="n">
+        <v>567067632.3331</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,12 +442,8 @@
       <c r="B18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>528304375.6006</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <f aca="false">C18/10^6</f>
-        <v>528.3043756006</v>
+      <c r="C18" s="2" t="n">
+        <v>570402863.0983</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,12 +453,8 @@
       <c r="B19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>528304375.6006</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <f aca="false">C19/10^6</f>
-        <v>528.3043756006</v>
+      <c r="C19" s="2" t="n">
+        <v>599380542.9525</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,12 +464,8 @@
       <c r="B20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>531800335.2512</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <f aca="false">C20/10^6</f>
-        <v>531.8003352512</v>
+      <c r="C20" s="2" t="n">
+        <v>602715773.7177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,15 +475,11 @@
       <c r="B21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>550288424.5654</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <f aca="false">C21/10^6</f>
-        <v>550.2884245654</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="n">
+        <v>602715773.7177</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -571,14 +487,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>550288424.5654</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <f aca="false">C22/10^6</f>
-        <v>550.2884245654</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>606211733.3683</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -586,14 +498,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>553623655.3306</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <f aca="false">C23/10^6</f>
-        <v>553.6236553306</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624699822.6825</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -601,14 +509,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>553784384.216</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <f aca="false">C24/10^6</f>
-        <v>553.784384216</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624699822.6825</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -616,14 +520,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>557119614.9812</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <f aca="false">C25/10^6</f>
-        <v>557.1196149812</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628035053.4477</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -631,14 +531,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>557119614.9812</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <f aca="false">C26/10^6</f>
-        <v>557.1196149812</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628195782.3331</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -646,14 +542,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>589432525.6006</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <f aca="false">C27/10^6</f>
-        <v>589.4325256006</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>631531013.0983</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -661,14 +553,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>611416574.5654</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <f aca="false">C28/10^6</f>
-        <v>611.4165745654</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>631531013.0983</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -676,14 +564,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>614751805.3306</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <f aca="false">C29/10^6</f>
-        <v>614.7518053306</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>663843923.7177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -691,14 +575,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>614751805.3306</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <f aca="false">C30/10^6</f>
-        <v>614.7518053306</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>685827972.6825</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -706,14 +586,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>618247764.9812</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <f aca="false">C31/10^6</f>
-        <v>618.2477649812</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689163203.4477</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -721,17 +597,35 @@
         <v>30</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>675879955.3306</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <f aca="false">C32/10^6</f>
-        <v>675.8799553306</v>
+        <v>689163203.4477</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>692659163.0983</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>750291353.4477</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
